--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:02:11+00:00</t>
+    <t>2022-04-26T11:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:12:16+00:00</t>
+    <t>2022-04-26T13:26:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:26:02+00:00</t>
+    <t>2022-04-26T13:59:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:59:43+00:00</t>
+    <t>2022-04-26T14:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T14:22:56+00:00</t>
+    <t>2022-04-26T15:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:39:01+00:00</t>
+    <t>2022-04-26T15:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:51:51+00:00</t>
+    <t>2022-04-26T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:55:35+00:00</t>
+    <t>2022-04-26T18:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T18:38:49+00:00</t>
+    <t>2022-04-26T21:01:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T21:01:36+00:00</t>
+    <t>2022-04-27T14:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T14:46:05+00:00</t>
+    <t>2022-04-27T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T15:02:03+00:00</t>
+    <t>2022-04-27T16:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>resource_datetime</t>
+    <t>Extension : ResourceInstanceCreateUpdateAtDateTime</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T16:39:04+00:00</t>
+    <t>2022-04-27T17:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -683,7 +683,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T17:38:08+00:00</t>
+    <t>2022-04-27T18:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:33:33+00:00</t>
+    <t>2022-04-27T18:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:54:13+00:00</t>
+    <t>2022-04-27T19:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T19:43:22+00:00</t>
+    <t>2022-04-27T20:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T20:06:03+00:00</t>
+    <t>2022-04-28T14:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:41:30+00:00</t>
+    <t>2022-04-28T16:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T16:16:13+00:00</t>
+    <t>2022-04-28T17:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T17:50:19+00:00</t>
+    <t>2022-04-28T19:25:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:25:11+00:00</t>
+    <t>2022-04-28T19:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:27:01+00:00</t>
+    <t>2022-04-28T19:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:36:30+00:00</t>
+    <t>2022-04-28T20:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T20:42:10+00:00</t>
+    <t>2022-05-02T17:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T17:39:54+00:00</t>
+    <t>2022-05-02T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T18:57:01+00:00</t>
+    <t>2022-05-02T20:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T20:54:37+00:00</t>
+    <t>2022-05-03T12:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:17:31+00:00</t>
+    <t>2022-05-03T15:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
+++ b/StructureDefinition-resource-instance-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:10:48+00:00</t>
+    <t>2022-05-03T15:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
